--- a/examples/1008/output.xlsx
+++ b/examples/1008/output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhenzhou/workspace/erp/表格格式/1008/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzhenzhou/workspace/erp/examples/1008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7225DF7E-3BF9-D648-9AEF-A7D2406D858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1C2AE9-8BEF-7344-ABD6-85DC74885052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19340" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="5340" windowWidth="19340" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>出库类型</t>
   </si>
@@ -187,7 +187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -214,7 +214,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,7 +246,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,14 +254,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,7 +269,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,7 +277,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -406,7 +406,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -908,7 +908,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -1281,7 +1281,9 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="16" customFormat="1">
       <c r="A12" s="4" t="s">
